--- a/CROATRAD.xlsx
+++ b/CROATRAD.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billi\Documents\PyPrac\SnDAinGeo_John_Davis_Data_Files\Chapter 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billi\Documents\PyPrac\Geostatistics\Geostatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="7755" tabRatio="703"/>
   </bookViews>
   <sheets>
-    <sheet name="hist-bin1" sheetId="5" r:id="rId1"/>
-    <sheet name="hist-bin2" sheetId="6" r:id="rId2"/>
-    <sheet name="hist-bin3" sheetId="7" r:id="rId3"/>
-    <sheet name="hist_bin_true_10" sheetId="10" r:id="rId4"/>
-    <sheet name="CROATRAD" sheetId="1" r:id="rId5"/>
+    <sheet name="CROATRAD" sheetId="1" r:id="rId1"/>
+    <sheet name="hist-bin1" sheetId="5" r:id="rId2"/>
+    <sheet name="hist-bin2" sheetId="6" r:id="rId3"/>
+    <sheet name="hist-bin3" sheetId="7" r:id="rId4"/>
+    <sheet name="hist_bin_true_10" sheetId="10" r:id="rId5"/>
     <sheet name="bin_calc" sheetId="8" r:id="rId6"/>
     <sheet name="bin_calc_true_width" sheetId="9" r:id="rId7"/>
   </sheets>
@@ -777,6 +777,13 @@
           <c:tx>
             <c:v>Frequency</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -823,9 +830,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-1724817872"/>
-        <c:axId val="-1724817328"/>
+        <c:gapWidth val="0"/>
+        <c:axId val="1213532880"/>
+        <c:axId val="1213535600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -884,11 +891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1724804816"/>
-        <c:axId val="-1724810256"/>
+        <c:axId val="1213537232"/>
+        <c:axId val="1213533424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1724817872"/>
+        <c:axId val="1213532880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724817328"/>
+        <c:crossAx val="1213535600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -925,7 +932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1724817328"/>
+        <c:axId val="1213535600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,12 +961,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724817872"/>
+        <c:crossAx val="1213532880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1724810256"/>
+        <c:axId val="1213533424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,12 +976,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724804816"/>
+        <c:crossAx val="1213537232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1724804816"/>
+        <c:axId val="1213537232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724810256"/>
+        <c:crossAx val="1213533424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1192,11 +1199,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-1724813520"/>
-        <c:axId val="-1724818416"/>
+        <c:axId val="1213530704"/>
+        <c:axId val="1213537776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1724813520"/>
+        <c:axId val="1213530704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1724818416"/>
+        <c:crossAx val="1213537776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1322,7 +1329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1724818416"/>
+        <c:axId val="1213537776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1370,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724813520"/>
+        <c:crossAx val="1213530704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1458,6 +1465,13 @@
           <c:tx>
             <c:v>Frequency</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1521,9 +1535,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-1724816240"/>
-        <c:axId val="-1724815152"/>
+        <c:gapWidth val="0"/>
+        <c:axId val="1213526352"/>
+        <c:axId val="1213531792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1599,11 +1613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1724814064"/>
-        <c:axId val="-1724814608"/>
+        <c:axId val="1213538864"/>
+        <c:axId val="1213538320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1724816240"/>
+        <c:axId val="1213526352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724815152"/>
+        <c:crossAx val="1213531792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1640,7 +1654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1724815152"/>
+        <c:axId val="1213531792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,12 +1683,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724816240"/>
+        <c:crossAx val="1213526352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1724814608"/>
+        <c:axId val="1213538320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,12 +1698,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724814064"/>
+        <c:crossAx val="1213538864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1724814064"/>
+        <c:axId val="1213538864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +1713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724814608"/>
+        <c:crossAx val="1213538320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1784,7 +1798,9 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1851,10 +1867,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1724812976"/>
-        <c:axId val="-1724812432"/>
+        <c:gapWidth val="0"/>
+        <c:axId val="1213539952"/>
+        <c:axId val="1213526896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1939,11 +1954,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1724811888"/>
-        <c:axId val="-1724804272"/>
+        <c:axId val="1170260352"/>
+        <c:axId val="1213539408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1724812976"/>
+        <c:axId val="1213539952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +2001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1724812432"/>
+        <c:crossAx val="1213526896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1994,7 +2009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1724812432"/>
+        <c:axId val="1213526896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,12 +2018,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2045,12 +2055,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1724812976"/>
+        <c:crossAx val="1213539952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1724804272"/>
+        <c:axId val="1213539408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,12 +2097,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1724811888"/>
+        <c:crossAx val="1170260352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1724811888"/>
+        <c:axId val="1170260352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724804272"/>
+        <c:crossAx val="1213539408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2232,6 +2242,13 @@
           <c:tx>
             <c:v>Frequency</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
@@ -2308,9 +2325,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-1724810800"/>
-        <c:axId val="-1724809168"/>
+        <c:gapWidth val="0"/>
+        <c:axId val="1265232640"/>
+        <c:axId val="1265225024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2399,11 +2416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1724807536"/>
-        <c:axId val="-1724808080"/>
+        <c:axId val="1265220128"/>
+        <c:axId val="1265227200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1724810800"/>
+        <c:axId val="1265232640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724809168"/>
+        <c:crossAx val="1265225024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2440,7 +2457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1724809168"/>
+        <c:axId val="1265225024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,12 +2486,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724810800"/>
+        <c:crossAx val="1265232640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1724808080"/>
+        <c:axId val="1265227200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,12 +2501,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724807536"/>
+        <c:crossAx val="1265220128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1724807536"/>
+        <c:axId val="1265220128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1724808080"/>
+        <c:crossAx val="1265227200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2688,8 +2705,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-43110512"/>
-        <c:axId val="-43119760"/>
+        <c:axId val="1265217952"/>
+        <c:axId val="1265222304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2790,11 +2807,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1777653424"/>
-        <c:axId val="-1777653968"/>
+        <c:axId val="1265233184"/>
+        <c:axId val="1265232096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-43110512"/>
+        <c:axId val="1265217952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,7 +2840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-43119760"/>
+        <c:crossAx val="1265222304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2832,7 +2849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-43119760"/>
+        <c:axId val="1265222304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2861,12 +2878,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-43110512"/>
+        <c:crossAx val="1265217952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1777653968"/>
+        <c:axId val="1265232096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,12 +2893,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1777653424"/>
+        <c:crossAx val="1265233184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1777653424"/>
+        <c:axId val="1265233184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +2908,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1777653968"/>
+        <c:crossAx val="1265232096"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3168,11 +3186,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-1724806448"/>
-        <c:axId val="-1724805904"/>
+        <c:axId val="1265226656"/>
+        <c:axId val="1265218496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1724806448"/>
+        <c:axId val="1265226656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1724805904"/>
+        <c:crossAx val="1265218496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3284,7 +3302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1724805904"/>
+        <c:axId val="1265218496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3293,12 +3311,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3391,7 +3404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1724806448"/>
+        <c:crossAx val="1265226656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3455,6 +3468,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram for bins = 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3511,11 +3549,72 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>bin_calc_true_width!$F$2:$F$11</c:f>
@@ -3602,30 +3701,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1917215808"/>
-        <c:axId val="-1917216896"/>
+        <c:gapWidth val="0"/>
+        <c:axId val="1265220672"/>
+        <c:axId val="1265221216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1917215808"/>
+        <c:axId val="1265220672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Radiation level nGy/hr</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3651,7 +3807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1917216896"/>
+        <c:crossAx val="1265221216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3659,7 +3815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1917216896"/>
+        <c:axId val="1265221216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,25 +3824,78 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3710,7 +3919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1917215808"/>
+        <c:crossAx val="1265220672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6191,16 +6400,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6485,10 +6694,3020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13.7</v>
+      </c>
+      <c r="B2">
+        <v>41.9</v>
+      </c>
+      <c r="C2">
+        <v>24.4</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>2.8</v>
+      </c>
+      <c r="F2">
+        <v>80.2</v>
+      </c>
+      <c r="G2">
+        <v>83</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>44</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>54.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>52.6</v>
+      </c>
+      <c r="C3">
+        <v>48.4</v>
+      </c>
+      <c r="D3">
+        <v>0.4</v>
+      </c>
+      <c r="E3">
+        <v>3.3</v>
+      </c>
+      <c r="F3">
+        <v>115.4</v>
+      </c>
+      <c r="G3">
+        <v>118.7</v>
+      </c>
+      <c r="H3">
+        <v>160</v>
+      </c>
+      <c r="I3">
+        <v>88</v>
+      </c>
+      <c r="J3">
+        <v>75</v>
+      </c>
+      <c r="K3">
+        <v>72.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12.3</v>
+      </c>
+      <c r="B4">
+        <v>40.6</v>
+      </c>
+      <c r="C4">
+        <v>27.7</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>1.6</v>
+      </c>
+      <c r="F4">
+        <v>80.8</v>
+      </c>
+      <c r="G4">
+        <v>82.3</v>
+      </c>
+      <c r="H4">
+        <v>240</v>
+      </c>
+      <c r="I4">
+        <v>132</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>90.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13.2</v>
+      </c>
+      <c r="B5">
+        <v>45.9</v>
+      </c>
+      <c r="C5">
+        <v>29.6</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>2.5</v>
+      </c>
+      <c r="F5">
+        <v>89.2</v>
+      </c>
+      <c r="G5">
+        <v>91.6</v>
+      </c>
+      <c r="I5">
+        <v>176</v>
+      </c>
+      <c r="J5">
+        <v>125</v>
+      </c>
+      <c r="K5">
+        <v>108.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11.3</v>
+      </c>
+      <c r="B6">
+        <v>40.6</v>
+      </c>
+      <c r="C6">
+        <v>21.6</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>1.6</v>
+      </c>
+      <c r="F6">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G6">
+        <v>75.2</v>
+      </c>
+      <c r="I6">
+        <v>220</v>
+      </c>
+      <c r="J6">
+        <v>150</v>
+      </c>
+      <c r="K6">
+        <v>127.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15.8</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>8.9</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>44.8</v>
+      </c>
+      <c r="G7">
+        <v>50.8</v>
+      </c>
+      <c r="J7">
+        <v>175</v>
+      </c>
+      <c r="K7">
+        <v>145.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14.3</v>
+      </c>
+      <c r="B8">
+        <v>45.3</v>
+      </c>
+      <c r="C8">
+        <v>25.4</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8">
+        <v>85.2</v>
+      </c>
+      <c r="G8">
+        <v>86.3</v>
+      </c>
+      <c r="J8">
+        <v>200</v>
+      </c>
+      <c r="K8">
+        <v>163.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15.5</v>
+      </c>
+      <c r="B9">
+        <v>50.6</v>
+      </c>
+      <c r="C9">
+        <v>28.2</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>1.7</v>
+      </c>
+      <c r="F9">
+        <v>94.5</v>
+      </c>
+      <c r="G9">
+        <v>96.2</v>
+      </c>
+      <c r="J9">
+        <v>225</v>
+      </c>
+      <c r="K9">
+        <v>181.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13.3</v>
+      </c>
+      <c r="B10">
+        <v>59.2</v>
+      </c>
+      <c r="C10">
+        <v>30.6</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>1.8</v>
+      </c>
+      <c r="F10">
+        <v>103.3</v>
+      </c>
+      <c r="G10">
+        <v>105.1</v>
+      </c>
+      <c r="K10">
+        <v>199.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12.6</v>
+      </c>
+      <c r="B11">
+        <v>37.9</v>
+      </c>
+      <c r="C11">
+        <v>41.8</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>2.4</v>
+      </c>
+      <c r="F11">
+        <v>92.6</v>
+      </c>
+      <c r="G11">
+        <v>94.9</v>
+      </c>
+      <c r="K11">
+        <v>218.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11.7</v>
+      </c>
+      <c r="B12">
+        <v>28.6</v>
+      </c>
+      <c r="C12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="G12">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12.2</v>
+      </c>
+      <c r="B13">
+        <v>30.6</v>
+      </c>
+      <c r="C13">
+        <v>57.3</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F13">
+        <v>100.4</v>
+      </c>
+      <c r="G13">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16.2</v>
+      </c>
+      <c r="B14">
+        <v>53.2</v>
+      </c>
+      <c r="C14">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>105.9</v>
+      </c>
+      <c r="G14">
+        <v>107.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14.3</v>
+      </c>
+      <c r="B15">
+        <v>32.6</v>
+      </c>
+      <c r="C15">
+        <v>61.6</v>
+      </c>
+      <c r="D15">
+        <v>0.3</v>
+      </c>
+      <c r="E15">
+        <v>6.6</v>
+      </c>
+      <c r="F15">
+        <v>108.7</v>
+      </c>
+      <c r="G15">
+        <v>115.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15.5</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>8.5</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>0.7</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11.2</v>
+      </c>
+      <c r="B17">
+        <v>35.9</v>
+      </c>
+      <c r="C17">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>5.3</v>
+      </c>
+      <c r="F17">
+        <v>83</v>
+      </c>
+      <c r="G17">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11.7</v>
+      </c>
+      <c r="B18">
+        <v>39.9</v>
+      </c>
+      <c r="C18">
+        <v>42.8</v>
+      </c>
+      <c r="D18">
+        <v>0.2</v>
+      </c>
+      <c r="E18">
+        <v>11.7</v>
+      </c>
+      <c r="F18">
+        <v>94.6</v>
+      </c>
+      <c r="G18">
+        <v>106.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12.9</v>
+      </c>
+      <c r="B19">
+        <v>12.6</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>2.4</v>
+      </c>
+      <c r="F19">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15.9</v>
+      </c>
+      <c r="B20">
+        <v>21.3</v>
+      </c>
+      <c r="C20">
+        <v>11.3</v>
+      </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <v>3.9</v>
+      </c>
+      <c r="F20">
+        <v>48.6</v>
+      </c>
+      <c r="G20">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12.5</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>14.6</v>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>51.1</v>
+      </c>
+      <c r="G21">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18.7</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>9.4</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F22">
+        <v>48.2</v>
+      </c>
+      <c r="G22">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>13.3</v>
+      </c>
+      <c r="C23">
+        <v>7.5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2.5</v>
+      </c>
+      <c r="F23">
+        <v>35.9</v>
+      </c>
+      <c r="G23">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18.3</v>
+      </c>
+      <c r="B24">
+        <v>38.6</v>
+      </c>
+      <c r="C24">
+        <v>62.5</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F24">
+        <v>119.9</v>
+      </c>
+      <c r="G24">
+        <v>128.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>14.5</v>
+      </c>
+      <c r="B25">
+        <v>37.9</v>
+      </c>
+      <c r="C25">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+      <c r="E25">
+        <v>8.9</v>
+      </c>
+      <c r="F25">
+        <v>86.5</v>
+      </c>
+      <c r="G25">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20.5</v>
+      </c>
+      <c r="B26">
+        <v>17.3</v>
+      </c>
+      <c r="C26">
+        <v>8.9</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26">
+        <v>6.2</v>
+      </c>
+      <c r="F26">
+        <v>46.9</v>
+      </c>
+      <c r="G26">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11.8</v>
+      </c>
+      <c r="B27">
+        <v>41.3</v>
+      </c>
+      <c r="C27">
+        <v>55.9</v>
+      </c>
+      <c r="D27">
+        <v>0.4</v>
+      </c>
+      <c r="E27">
+        <v>11.8</v>
+      </c>
+      <c r="F27">
+        <v>109.5</v>
+      </c>
+      <c r="G27">
+        <v>121.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22.4</v>
+      </c>
+      <c r="B28">
+        <v>24.6</v>
+      </c>
+      <c r="C28">
+        <v>13.2</v>
+      </c>
+      <c r="D28">
+        <v>0.3</v>
+      </c>
+      <c r="E28">
+        <v>6.9</v>
+      </c>
+      <c r="F28">
+        <v>60.5</v>
+      </c>
+      <c r="G28">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12.1</v>
+      </c>
+      <c r="B29">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C29">
+        <v>87</v>
+      </c>
+      <c r="D29">
+        <v>0.8</v>
+      </c>
+      <c r="E29">
+        <v>17.2</v>
+      </c>
+      <c r="F29">
+        <v>135.1</v>
+      </c>
+      <c r="G29">
+        <v>152.30000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B30">
+        <v>25.3</v>
+      </c>
+      <c r="C30">
+        <v>53.6</v>
+      </c>
+      <c r="D30">
+        <v>0.6</v>
+      </c>
+      <c r="E30">
+        <v>14.7</v>
+      </c>
+      <c r="F30">
+        <v>88.3</v>
+      </c>
+      <c r="G30">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12.9</v>
+      </c>
+      <c r="B31">
+        <v>31.9</v>
+      </c>
+      <c r="C31">
+        <v>55.5</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>100.9</v>
+      </c>
+      <c r="G31">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>13.2</v>
+      </c>
+      <c r="B32">
+        <v>21.3</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>0.4</v>
+      </c>
+      <c r="E32">
+        <v>7.7</v>
+      </c>
+      <c r="F32">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="G32">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>13.3</v>
+      </c>
+      <c r="B33">
+        <v>32.6</v>
+      </c>
+      <c r="C33">
+        <v>93.1</v>
+      </c>
+      <c r="D33">
+        <v>0.7</v>
+      </c>
+      <c r="E33">
+        <v>7.5</v>
+      </c>
+      <c r="F33">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="G33">
+        <v>147.19999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C34">
+        <v>63.9</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F34">
+        <v>117.8</v>
+      </c>
+      <c r="G34">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>19.8</v>
+      </c>
+      <c r="B35">
+        <v>55.2</v>
+      </c>
+      <c r="C35">
+        <v>27.3</v>
+      </c>
+      <c r="D35">
+        <v>0.2</v>
+      </c>
+      <c r="E35">
+        <v>1.4</v>
+      </c>
+      <c r="F35">
+        <v>102.5</v>
+      </c>
+      <c r="G35">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12.5</v>
+      </c>
+      <c r="B36">
+        <v>31.9</v>
+      </c>
+      <c r="C36">
+        <v>82.3</v>
+      </c>
+      <c r="D36">
+        <v>0.3</v>
+      </c>
+      <c r="E36">
+        <v>12.6</v>
+      </c>
+      <c r="F36">
+        <v>127</v>
+      </c>
+      <c r="G36">
+        <v>139.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5.2</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>23.5</v>
+      </c>
+      <c r="D37">
+        <v>0.2</v>
+      </c>
+      <c r="E37">
+        <v>5.4</v>
+      </c>
+      <c r="F37">
+        <v>36.9</v>
+      </c>
+      <c r="G37">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>17.7</v>
+      </c>
+      <c r="B38">
+        <v>45.9</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
+      <c r="E38">
+        <v>1.8</v>
+      </c>
+      <c r="F38">
+        <v>87.7</v>
+      </c>
+      <c r="G38">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>17.5</v>
+      </c>
+      <c r="B39">
+        <v>40.6</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+      <c r="D39">
+        <v>0.4</v>
+      </c>
+      <c r="E39">
+        <v>3.3</v>
+      </c>
+      <c r="F39">
+        <v>90.5</v>
+      </c>
+      <c r="G39">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15.9</v>
+      </c>
+      <c r="B40">
+        <v>45.9</v>
+      </c>
+      <c r="C40">
+        <v>38.5</v>
+      </c>
+      <c r="D40">
+        <v>0.2</v>
+      </c>
+      <c r="E40">
+        <v>3.8</v>
+      </c>
+      <c r="F40">
+        <v>100.6</v>
+      </c>
+      <c r="G40">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>40.6</v>
+      </c>
+      <c r="C41">
+        <v>91.7</v>
+      </c>
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+      <c r="E41">
+        <v>7.5</v>
+      </c>
+      <c r="F41">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="G41">
+        <v>155.19999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>14.1</v>
+      </c>
+      <c r="B42">
+        <v>43.9</v>
+      </c>
+      <c r="C42">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D42">
+        <v>0.3</v>
+      </c>
+      <c r="E42">
+        <v>2.4</v>
+      </c>
+      <c r="F42">
+        <v>95</v>
+      </c>
+      <c r="G42">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14.4</v>
+      </c>
+      <c r="B43">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C43">
+        <v>30.1</v>
+      </c>
+      <c r="D43">
+        <v>0.2</v>
+      </c>
+      <c r="E43">
+        <v>9.6</v>
+      </c>
+      <c r="F43">
+        <v>82</v>
+      </c>
+      <c r="G43">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>12.7</v>
+      </c>
+      <c r="B44">
+        <v>47.3</v>
+      </c>
+      <c r="C44">
+        <v>32.4</v>
+      </c>
+      <c r="D44">
+        <v>0.3</v>
+      </c>
+      <c r="E44">
+        <v>3.4</v>
+      </c>
+      <c r="F44">
+        <v>92.6</v>
+      </c>
+      <c r="G44">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11.1</v>
+      </c>
+      <c r="B45">
+        <v>47.3</v>
+      </c>
+      <c r="C45">
+        <v>31.5</v>
+      </c>
+      <c r="D45">
+        <v>0.2</v>
+      </c>
+      <c r="E45">
+        <v>7.1</v>
+      </c>
+      <c r="F45">
+        <v>90</v>
+      </c>
+      <c r="G45">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>14.6</v>
+      </c>
+      <c r="B46">
+        <v>44.6</v>
+      </c>
+      <c r="C46">
+        <v>44.7</v>
+      </c>
+      <c r="D46">
+        <v>0.2</v>
+      </c>
+      <c r="E46">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F46">
+        <v>104.1</v>
+      </c>
+      <c r="G46">
+        <v>112.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>18.8</v>
+      </c>
+      <c r="B47">
+        <v>41.3</v>
+      </c>
+      <c r="C47">
+        <v>40.9</v>
+      </c>
+      <c r="D47">
+        <v>0.2</v>
+      </c>
+      <c r="E47">
+        <v>2.5</v>
+      </c>
+      <c r="F47">
+        <v>101.1</v>
+      </c>
+      <c r="G47">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>14.7</v>
+      </c>
+      <c r="B48">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C48">
+        <v>40.9</v>
+      </c>
+      <c r="D48">
+        <v>0.2</v>
+      </c>
+      <c r="E48">
+        <v>0.6</v>
+      </c>
+      <c r="F48">
+        <v>93.1</v>
+      </c>
+      <c r="G48">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12.2</v>
+      </c>
+      <c r="B49">
+        <v>43.9</v>
+      </c>
+      <c r="C49">
+        <v>45.1</v>
+      </c>
+      <c r="D49">
+        <v>0.2</v>
+      </c>
+      <c r="E49">
+        <v>4.3</v>
+      </c>
+      <c r="F49">
+        <v>101.5</v>
+      </c>
+      <c r="G49">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>19.7</v>
+      </c>
+      <c r="B50">
+        <v>43.3</v>
+      </c>
+      <c r="C50">
+        <v>37.6</v>
+      </c>
+      <c r="D50">
+        <v>0.2</v>
+      </c>
+      <c r="E50">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F50">
+        <v>100.7</v>
+      </c>
+      <c r="G50">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>45.3</v>
+      </c>
+      <c r="C51">
+        <v>32.4</v>
+      </c>
+      <c r="D51">
+        <v>0.3</v>
+      </c>
+      <c r="E51">
+        <v>1.9</v>
+      </c>
+      <c r="F51">
+        <v>96</v>
+      </c>
+      <c r="G51">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>45.9</v>
+      </c>
+      <c r="C52">
+        <v>48.9</v>
+      </c>
+      <c r="D52">
+        <v>0.3</v>
+      </c>
+      <c r="E52">
+        <v>6.6</v>
+      </c>
+      <c r="F52">
+        <v>113.1</v>
+      </c>
+      <c r="G52">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="B53">
+        <v>42.6</v>
+      </c>
+      <c r="C53">
+        <v>67.2</v>
+      </c>
+      <c r="D53">
+        <v>0.6</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>127.4</v>
+      </c>
+      <c r="G53">
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>17.7</v>
+      </c>
+      <c r="B54">
+        <v>43.9</v>
+      </c>
+      <c r="C54">
+        <v>51.2</v>
+      </c>
+      <c r="D54">
+        <v>0.3</v>
+      </c>
+      <c r="E54">
+        <v>3.4</v>
+      </c>
+      <c r="F54">
+        <v>113.2</v>
+      </c>
+      <c r="G54">
+        <v>116.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B55">
+        <v>43.3</v>
+      </c>
+      <c r="C55">
+        <v>31.5</v>
+      </c>
+      <c r="D55">
+        <v>0.2</v>
+      </c>
+      <c r="E55">
+        <v>3.4</v>
+      </c>
+      <c r="F55">
+        <v>95.3</v>
+      </c>
+      <c r="G55">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>18.2</v>
+      </c>
+      <c r="B56">
+        <v>45.9</v>
+      </c>
+      <c r="C56">
+        <v>41.8</v>
+      </c>
+      <c r="D56">
+        <v>0.3</v>
+      </c>
+      <c r="E56">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F56">
+        <v>106.2</v>
+      </c>
+      <c r="G56">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="B57">
+        <v>39.9</v>
+      </c>
+      <c r="C57">
+        <v>61.6</v>
+      </c>
+      <c r="D57">
+        <v>0.6</v>
+      </c>
+      <c r="E57">
+        <v>6.2</v>
+      </c>
+      <c r="F57">
+        <v>119</v>
+      </c>
+      <c r="G57">
+        <v>125.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="B58">
+        <v>43.9</v>
+      </c>
+      <c r="C58">
+        <v>89.8</v>
+      </c>
+      <c r="D58">
+        <v>0.7</v>
+      </c>
+      <c r="E58">
+        <v>10.1</v>
+      </c>
+      <c r="F58">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="G58">
+        <v>162.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B59">
+        <v>40.6</v>
+      </c>
+      <c r="C59">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D59">
+        <v>0.2</v>
+      </c>
+      <c r="E59">
+        <v>1.5</v>
+      </c>
+      <c r="F59">
+        <v>92.2</v>
+      </c>
+      <c r="G59">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>15.7</v>
+      </c>
+      <c r="B60">
+        <v>45.3</v>
+      </c>
+      <c r="C60">
+        <v>48.4</v>
+      </c>
+      <c r="D60">
+        <v>0.3</v>
+      </c>
+      <c r="E60">
+        <v>5.6</v>
+      </c>
+      <c r="F60">
+        <v>109.7</v>
+      </c>
+      <c r="G60">
+        <v>115.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>18.2</v>
+      </c>
+      <c r="B61">
+        <v>48.6</v>
+      </c>
+      <c r="C61">
+        <v>26.3</v>
+      </c>
+      <c r="D61">
+        <v>0.2</v>
+      </c>
+      <c r="E61">
+        <v>3.4</v>
+      </c>
+      <c r="F61">
+        <v>93.3</v>
+      </c>
+      <c r="G61">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="B62">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C62">
+        <v>31.5</v>
+      </c>
+      <c r="D62">
+        <v>0.2</v>
+      </c>
+      <c r="E62">
+        <v>0.9</v>
+      </c>
+      <c r="F62">
+        <v>88.4</v>
+      </c>
+      <c r="G62">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>13.6</v>
+      </c>
+      <c r="B63">
+        <v>37.9</v>
+      </c>
+      <c r="C63">
+        <v>30.6</v>
+      </c>
+      <c r="D63">
+        <v>0.2</v>
+      </c>
+      <c r="E63">
+        <v>1.7</v>
+      </c>
+      <c r="F63">
+        <v>82.4</v>
+      </c>
+      <c r="G63">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>13.8</v>
+      </c>
+      <c r="B64">
+        <v>38.6</v>
+      </c>
+      <c r="C64">
+        <v>25.4</v>
+      </c>
+      <c r="D64">
+        <v>0.2</v>
+      </c>
+      <c r="E64">
+        <v>3.7</v>
+      </c>
+      <c r="F64">
+        <v>78</v>
+      </c>
+      <c r="G64">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>16.2</v>
+      </c>
+      <c r="B65">
+        <v>52.6</v>
+      </c>
+      <c r="C65">
+        <v>40</v>
+      </c>
+      <c r="D65">
+        <v>0.3</v>
+      </c>
+      <c r="E65">
+        <v>1.4</v>
+      </c>
+      <c r="F65">
+        <v>109</v>
+      </c>
+      <c r="G65">
+        <v>110.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>12.7</v>
+      </c>
+      <c r="B66">
+        <v>45.9</v>
+      </c>
+      <c r="C66">
+        <v>47</v>
+      </c>
+      <c r="D66">
+        <v>0.3</v>
+      </c>
+      <c r="E66">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F66">
+        <v>105.9</v>
+      </c>
+      <c r="G66">
+        <v>108.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>15.6</v>
+      </c>
+      <c r="B67">
+        <v>34.6</v>
+      </c>
+      <c r="C67">
+        <v>22.6</v>
+      </c>
+      <c r="D67">
+        <v>0.2</v>
+      </c>
+      <c r="E67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F67">
+        <v>73</v>
+      </c>
+      <c r="G67">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>46.6</v>
+      </c>
+      <c r="C68">
+        <v>25.9</v>
+      </c>
+      <c r="D68">
+        <v>0.4</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>87.8</v>
+      </c>
+      <c r="G68">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>15.8</v>
+      </c>
+      <c r="B69">
+        <v>37.9</v>
+      </c>
+      <c r="C69">
+        <v>25.9</v>
+      </c>
+      <c r="D69">
+        <v>0.3</v>
+      </c>
+      <c r="E69">
+        <v>3.3</v>
+      </c>
+      <c r="F69">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="G69">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>13.4</v>
+      </c>
+      <c r="B70">
+        <v>31.9</v>
+      </c>
+      <c r="C70">
+        <v>21.2</v>
+      </c>
+      <c r="D70">
+        <v>0.3</v>
+      </c>
+      <c r="E70">
+        <v>7.3</v>
+      </c>
+      <c r="F70">
+        <v>66.8</v>
+      </c>
+      <c r="G70">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>14.7</v>
+      </c>
+      <c r="B71">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C71">
+        <v>53.1</v>
+      </c>
+      <c r="D71">
+        <v>0.3</v>
+      </c>
+      <c r="E71">
+        <v>3.6</v>
+      </c>
+      <c r="F71">
+        <v>105.4</v>
+      </c>
+      <c r="G71">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>15.3</v>
+      </c>
+      <c r="B72">
+        <v>49.9</v>
+      </c>
+      <c r="C72">
+        <v>30.1</v>
+      </c>
+      <c r="D72">
+        <v>0.2</v>
+      </c>
+      <c r="E72">
+        <v>2.6</v>
+      </c>
+      <c r="F72">
+        <v>95.5</v>
+      </c>
+      <c r="G72">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>12.7</v>
+      </c>
+      <c r="B73">
+        <v>31.9</v>
+      </c>
+      <c r="C73">
+        <v>26.3</v>
+      </c>
+      <c r="D73">
+        <v>0.2</v>
+      </c>
+      <c r="E73">
+        <v>5.9</v>
+      </c>
+      <c r="F73">
+        <v>71.2</v>
+      </c>
+      <c r="G73">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B74">
+        <v>37.9</v>
+      </c>
+      <c r="C74">
+        <v>38.5</v>
+      </c>
+      <c r="D74">
+        <v>0.2</v>
+      </c>
+      <c r="E74">
+        <v>6.1</v>
+      </c>
+      <c r="F74">
+        <v>96.8</v>
+      </c>
+      <c r="G74">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>15.8</v>
+      </c>
+      <c r="B75">
+        <v>43.3</v>
+      </c>
+      <c r="C75">
+        <v>29.6</v>
+      </c>
+      <c r="D75">
+        <v>0.3</v>
+      </c>
+      <c r="E75">
+        <v>2.6</v>
+      </c>
+      <c r="F75">
+        <v>88.9</v>
+      </c>
+      <c r="G75">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>14.6</v>
+      </c>
+      <c r="B76">
+        <v>48.6</v>
+      </c>
+      <c r="C76">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D76">
+        <v>0.2</v>
+      </c>
+      <c r="E76">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F76">
+        <v>100</v>
+      </c>
+      <c r="G76">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="B77">
+        <v>45.3</v>
+      </c>
+      <c r="C77">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>6.4</v>
+      </c>
+      <c r="F77">
+        <v>211.8</v>
+      </c>
+      <c r="G77">
+        <v>218.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>16.5</v>
+      </c>
+      <c r="B78">
+        <v>36.6</v>
+      </c>
+      <c r="C78">
+        <v>41.4</v>
+      </c>
+      <c r="D78">
+        <v>0.3</v>
+      </c>
+      <c r="E78">
+        <v>5.7</v>
+      </c>
+      <c r="F78">
+        <v>94.8</v>
+      </c>
+      <c r="G78">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>13.4</v>
+      </c>
+      <c r="B79">
+        <v>58.6</v>
+      </c>
+      <c r="C79">
+        <v>24.4</v>
+      </c>
+      <c r="D79">
+        <v>0.2</v>
+      </c>
+      <c r="E79">
+        <v>3.2</v>
+      </c>
+      <c r="F79">
+        <v>96.6</v>
+      </c>
+      <c r="G79">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>14.4</v>
+      </c>
+      <c r="B80">
+        <v>40.6</v>
+      </c>
+      <c r="C80">
+        <v>44.2</v>
+      </c>
+      <c r="D80">
+        <v>0.6</v>
+      </c>
+      <c r="E80">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F80">
+        <v>99.8</v>
+      </c>
+      <c r="G80">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>19.3</v>
+      </c>
+      <c r="C81">
+        <v>13.2</v>
+      </c>
+      <c r="D81">
+        <v>0.1</v>
+      </c>
+      <c r="E81">
+        <v>2.6</v>
+      </c>
+      <c r="F81">
+        <v>47.5</v>
+      </c>
+      <c r="G81">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>43.3</v>
+      </c>
+      <c r="C82">
+        <v>31</v>
+      </c>
+      <c r="D82">
+        <v>0.4</v>
+      </c>
+      <c r="E82">
+        <v>2.7</v>
+      </c>
+      <c r="F82">
+        <v>88.6</v>
+      </c>
+      <c r="G82">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>12.1</v>
+      </c>
+      <c r="B83">
+        <v>47.3</v>
+      </c>
+      <c r="C83">
+        <v>55.9</v>
+      </c>
+      <c r="D83">
+        <v>0.6</v>
+      </c>
+      <c r="E83">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F83">
+        <v>115.9</v>
+      </c>
+      <c r="G83">
+        <v>118.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>23.3</v>
+      </c>
+      <c r="C84">
+        <v>14.1</v>
+      </c>
+      <c r="D84">
+        <v>0.1</v>
+      </c>
+      <c r="E84">
+        <v>4.5</v>
+      </c>
+      <c r="F84">
+        <v>55.6</v>
+      </c>
+      <c r="G84">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>13.9</v>
+      </c>
+      <c r="B85">
+        <v>43.3</v>
+      </c>
+      <c r="C85">
+        <v>30.1</v>
+      </c>
+      <c r="D85">
+        <v>0.3</v>
+      </c>
+      <c r="E85">
+        <v>1.7</v>
+      </c>
+      <c r="F85">
+        <v>87.5</v>
+      </c>
+      <c r="G85">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>12.5</v>
+      </c>
+      <c r="B86">
+        <v>45.3</v>
+      </c>
+      <c r="C86">
+        <v>31</v>
+      </c>
+      <c r="D86">
+        <v>0.3</v>
+      </c>
+      <c r="E86">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F86">
+        <v>89.1</v>
+      </c>
+      <c r="G86">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>14.2</v>
+      </c>
+      <c r="B87">
+        <v>27.3</v>
+      </c>
+      <c r="C87">
+        <v>30.6</v>
+      </c>
+      <c r="D87">
+        <v>0.3</v>
+      </c>
+      <c r="E87">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F87">
+        <v>72.3</v>
+      </c>
+      <c r="G87">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>11.5</v>
+      </c>
+      <c r="B88">
+        <v>43.9</v>
+      </c>
+      <c r="C88">
+        <v>42.8</v>
+      </c>
+      <c r="D88">
+        <v>0.5</v>
+      </c>
+      <c r="E88">
+        <v>10.1</v>
+      </c>
+      <c r="F88">
+        <v>98.7</v>
+      </c>
+      <c r="G88">
+        <v>108.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89">
+        <v>43.3</v>
+      </c>
+      <c r="C89">
+        <v>57.8</v>
+      </c>
+      <c r="D89">
+        <v>0.4</v>
+      </c>
+      <c r="E89">
+        <v>7.3</v>
+      </c>
+      <c r="F89">
+        <v>117.5</v>
+      </c>
+      <c r="G89">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>16.7</v>
+      </c>
+      <c r="B90">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>15.5</v>
+      </c>
+      <c r="D90">
+        <v>0.1</v>
+      </c>
+      <c r="E90">
+        <v>2.5</v>
+      </c>
+      <c r="F90">
+        <v>56.3</v>
+      </c>
+      <c r="G90">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>11.7</v>
+      </c>
+      <c r="B91">
+        <v>33.9</v>
+      </c>
+      <c r="C91">
+        <v>46.1</v>
+      </c>
+      <c r="D91">
+        <v>0.2</v>
+      </c>
+      <c r="E91">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F91">
+        <v>91.9</v>
+      </c>
+      <c r="G91">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>13.8</v>
+      </c>
+      <c r="B92">
+        <v>42.6</v>
+      </c>
+      <c r="C92">
+        <v>94</v>
+      </c>
+      <c r="D92">
+        <v>0.8</v>
+      </c>
+      <c r="E92">
+        <v>14.7</v>
+      </c>
+      <c r="F92">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="G92">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>15</v>
+      </c>
+      <c r="B93">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C93">
+        <v>11.3</v>
+      </c>
+      <c r="D93">
+        <v>0.1</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>45.1</v>
+      </c>
+      <c r="G93">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>14.7</v>
+      </c>
+      <c r="B94">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C94">
+        <v>9.9</v>
+      </c>
+      <c r="D94">
+        <v>0.1</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>43.3</v>
+      </c>
+      <c r="G94">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="B95">
+        <v>21.3</v>
+      </c>
+      <c r="C95">
+        <v>8.9</v>
+      </c>
+      <c r="D95">
+        <v>0.1</v>
+      </c>
+      <c r="E95">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F95">
+        <v>48.2</v>
+      </c>
+      <c r="G95">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B96">
+        <v>58.6</v>
+      </c>
+      <c r="C96">
+        <v>29.1</v>
+      </c>
+      <c r="D96">
+        <v>0.1</v>
+      </c>
+      <c r="E96">
+        <v>1.5</v>
+      </c>
+      <c r="F96">
+        <v>103.9</v>
+      </c>
+      <c r="G96">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B97">
+        <v>48.6</v>
+      </c>
+      <c r="C97">
+        <v>50.3</v>
+      </c>
+      <c r="D97">
+        <v>0.3</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>117.8</v>
+      </c>
+      <c r="G97">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B98">
+        <v>53.2</v>
+      </c>
+      <c r="C98">
+        <v>55.5</v>
+      </c>
+      <c r="D98">
+        <v>0.6</v>
+      </c>
+      <c r="E98">
+        <v>3.9</v>
+      </c>
+      <c r="F98">
+        <v>127.4</v>
+      </c>
+      <c r="G98">
+        <v>131.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>16.3</v>
+      </c>
+      <c r="B99">
+        <v>30.6</v>
+      </c>
+      <c r="C99">
+        <v>70.5</v>
+      </c>
+      <c r="D99">
+        <v>0.5</v>
+      </c>
+      <c r="E99">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F99">
+        <v>117.9</v>
+      </c>
+      <c r="G99">
+        <v>128.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>14.1</v>
+      </c>
+      <c r="B100">
+        <v>44.6</v>
+      </c>
+      <c r="C100">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="D100">
+        <v>0.6</v>
+      </c>
+      <c r="E100">
+        <v>6.6</v>
+      </c>
+      <c r="F100">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="G100">
+        <v>138.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>30.6</v>
+      </c>
+      <c r="C101">
+        <v>32</v>
+      </c>
+      <c r="D101">
+        <v>0.4</v>
+      </c>
+      <c r="E101">
+        <v>5.9</v>
+      </c>
+      <c r="F101">
+        <v>78</v>
+      </c>
+      <c r="G101">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>17.3</v>
+      </c>
+      <c r="B102">
+        <v>26</v>
+      </c>
+      <c r="C102">
+        <v>12.7</v>
+      </c>
+      <c r="D102">
+        <v>0.3</v>
+      </c>
+      <c r="E102">
+        <v>9.1</v>
+      </c>
+      <c r="F102">
+        <v>56.2</v>
+      </c>
+      <c r="G102">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>14.4</v>
+      </c>
+      <c r="B103">
+        <v>38.6</v>
+      </c>
+      <c r="C103">
+        <v>101.5</v>
+      </c>
+      <c r="D103">
+        <v>0.4</v>
+      </c>
+      <c r="E103">
+        <v>10.5</v>
+      </c>
+      <c r="F103">
+        <v>155</v>
+      </c>
+      <c r="G103">
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>12.9</v>
+      </c>
+      <c r="B104">
+        <v>42.6</v>
+      </c>
+      <c r="C104">
+        <v>82.7</v>
+      </c>
+      <c r="D104">
+        <v>0.7</v>
+      </c>
+      <c r="E104">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F104">
+        <v>139</v>
+      </c>
+      <c r="G104">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>12.3</v>
+      </c>
+      <c r="B105">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C105">
+        <v>89.3</v>
+      </c>
+      <c r="D105">
+        <v>0.6</v>
+      </c>
+      <c r="E105">
+        <v>10.8</v>
+      </c>
+      <c r="F105">
+        <v>141.5</v>
+      </c>
+      <c r="G105">
+        <v>152.30000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>15.6</v>
+      </c>
+      <c r="B106">
+        <v>41.9</v>
+      </c>
+      <c r="C106">
+        <v>25.9</v>
+      </c>
+      <c r="D106">
+        <v>0.1</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>83.5</v>
+      </c>
+      <c r="G106">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>15.2</v>
+      </c>
+      <c r="B107">
+        <v>19.3</v>
+      </c>
+      <c r="C107">
+        <v>12.2</v>
+      </c>
+      <c r="D107">
+        <v>0.1</v>
+      </c>
+      <c r="E107">
+        <v>1.9</v>
+      </c>
+      <c r="F107">
+        <v>46.8</v>
+      </c>
+      <c r="G107">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>14.2</v>
+      </c>
+      <c r="B108">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C108">
+        <v>8.9</v>
+      </c>
+      <c r="D108">
+        <v>0.1</v>
+      </c>
+      <c r="E108">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F108">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="G108">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>10.4</v>
+      </c>
+      <c r="B109">
+        <v>14</v>
+      </c>
+      <c r="C109">
+        <v>7.1</v>
+      </c>
+      <c r="D109">
+        <v>0.2</v>
+      </c>
+      <c r="E109">
+        <v>26.8</v>
+      </c>
+      <c r="F109">
+        <v>31.6</v>
+      </c>
+      <c r="G109">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>14.6</v>
+      </c>
+      <c r="B110">
+        <v>14</v>
+      </c>
+      <c r="C110">
+        <v>8.5</v>
+      </c>
+      <c r="D110">
+        <v>0.1</v>
+      </c>
+      <c r="E110">
+        <v>7.3</v>
+      </c>
+      <c r="F110">
+        <v>37.1</v>
+      </c>
+      <c r="G110">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>26.6</v>
+      </c>
+      <c r="C111">
+        <v>12.7</v>
+      </c>
+      <c r="D111">
+        <v>0.3</v>
+      </c>
+      <c r="E111">
+        <v>21.8</v>
+      </c>
+      <c r="F111">
+        <v>61.6</v>
+      </c>
+      <c r="G111">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>12.8</v>
+      </c>
+      <c r="B112">
+        <v>29.3</v>
+      </c>
+      <c r="C112">
+        <v>19.7</v>
+      </c>
+      <c r="D112">
+        <v>0.4</v>
+      </c>
+      <c r="E112">
+        <v>37.1</v>
+      </c>
+      <c r="F112">
+        <v>62.2</v>
+      </c>
+      <c r="G112">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B113">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>8.9</v>
+      </c>
+      <c r="D113">
+        <v>0.2</v>
+      </c>
+      <c r="E113">
+        <v>23.3</v>
+      </c>
+      <c r="F113">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G113">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>19.7</v>
+      </c>
+      <c r="B114">
+        <v>24.6</v>
+      </c>
+      <c r="C114">
+        <v>10.3</v>
+      </c>
+      <c r="D114">
+        <v>0.1</v>
+      </c>
+      <c r="E114">
+        <v>10.4</v>
+      </c>
+      <c r="F114">
+        <v>54.7</v>
+      </c>
+      <c r="G114">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>16.5</v>
+      </c>
+      <c r="B115">
+        <v>12.6</v>
+      </c>
+      <c r="C115">
+        <v>7.5</v>
+      </c>
+      <c r="D115">
+        <v>0.1</v>
+      </c>
+      <c r="E115">
+        <v>4.5</v>
+      </c>
+      <c r="F115">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G115">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>16.3</v>
+      </c>
+      <c r="B116">
+        <v>14.6</v>
+      </c>
+      <c r="C116">
+        <v>8.9</v>
+      </c>
+      <c r="D116">
+        <v>0.1</v>
+      </c>
+      <c r="E116">
+        <v>3.5</v>
+      </c>
+      <c r="F116">
+        <v>40</v>
+      </c>
+      <c r="G116">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>15.9</v>
+      </c>
+      <c r="B117">
+        <v>43.3</v>
+      </c>
+      <c r="C117">
+        <v>47</v>
+      </c>
+      <c r="D117">
+        <v>0.2</v>
+      </c>
+      <c r="E117">
+        <v>3.5</v>
+      </c>
+      <c r="F117">
+        <v>106.3</v>
+      </c>
+      <c r="G117">
+        <v>109.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B118">
+        <v>21.3</v>
+      </c>
+      <c r="C118">
+        <v>16</v>
+      </c>
+      <c r="D118">
+        <v>0.2</v>
+      </c>
+      <c r="E118">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F118">
+        <v>46.8</v>
+      </c>
+      <c r="G118">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B119">
+        <v>44.6</v>
+      </c>
+      <c r="C119">
+        <v>42.8</v>
+      </c>
+      <c r="D119">
+        <v>0.3</v>
+      </c>
+      <c r="E119">
+        <v>2.6</v>
+      </c>
+      <c r="F119">
+        <v>104.2</v>
+      </c>
+      <c r="G119">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>13</v>
+      </c>
+      <c r="B120">
+        <v>46.6</v>
+      </c>
+      <c r="C120">
+        <v>29.6</v>
+      </c>
+      <c r="D120">
+        <v>0.3</v>
+      </c>
+      <c r="E120">
+        <v>3.9</v>
+      </c>
+      <c r="F120">
+        <v>89.5</v>
+      </c>
+      <c r="G120">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>10.9</v>
+      </c>
+      <c r="B121">
+        <v>43.9</v>
+      </c>
+      <c r="C121">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D121">
+        <v>0.3</v>
+      </c>
+      <c r="E121">
+        <v>2.7</v>
+      </c>
+      <c r="F121">
+        <v>90.8</v>
+      </c>
+      <c r="G121">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>15.4</v>
+      </c>
+      <c r="B122">
+        <v>22.6</v>
+      </c>
+      <c r="C122">
+        <v>12.7</v>
+      </c>
+      <c r="D122">
+        <v>0.1</v>
+      </c>
+      <c r="E122">
+        <v>4.7</v>
+      </c>
+      <c r="F122">
+        <v>50.8</v>
+      </c>
+      <c r="G122">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>16.7</v>
+      </c>
+      <c r="B123">
+        <v>14.6</v>
+      </c>
+      <c r="C123">
+        <v>8.5</v>
+      </c>
+      <c r="D123">
+        <v>0.1</v>
+      </c>
+      <c r="E123">
+        <v>3.4</v>
+      </c>
+      <c r="F123">
+        <v>39.9</v>
+      </c>
+      <c r="G123">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>15.6</v>
+      </c>
+      <c r="B124">
+        <v>14.6</v>
+      </c>
+      <c r="C124">
+        <v>8</v>
+      </c>
+      <c r="D124">
+        <v>0.2</v>
+      </c>
+      <c r="E124">
+        <v>1.2</v>
+      </c>
+      <c r="F124">
+        <v>38.4</v>
+      </c>
+      <c r="G124">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>18.7</v>
+      </c>
+      <c r="B125">
+        <v>47.3</v>
+      </c>
+      <c r="C125">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D125">
+        <v>0.2</v>
+      </c>
+      <c r="E125">
+        <v>1.8</v>
+      </c>
+      <c r="F125">
+        <v>101.9</v>
+      </c>
+      <c r="G125">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>13.3</v>
+      </c>
+      <c r="B126">
+        <v>40.6</v>
+      </c>
+      <c r="C126">
+        <v>31</v>
+      </c>
+      <c r="D126">
+        <v>0.2</v>
+      </c>
+      <c r="E126">
+        <v>0.8</v>
+      </c>
+      <c r="F126">
+        <v>85.2</v>
+      </c>
+      <c r="G126">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <f>MAX(G2:G126)</f>
+        <v>218.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6612,12 +9831,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6779,12 +9998,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6918,7 +10137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -7063,3023 +10282,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K127"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" activeCellId="1" sqref="G1:G1048576 K1:K1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>13.7</v>
-      </c>
-      <c r="B2">
-        <v>41.9</v>
-      </c>
-      <c r="C2">
-        <v>24.4</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2">
-        <v>2.8</v>
-      </c>
-      <c r="F2">
-        <v>80.2</v>
-      </c>
-      <c r="G2">
-        <v>83</v>
-      </c>
-      <c r="H2">
-        <v>80</v>
-      </c>
-      <c r="I2">
-        <v>44</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-      <c r="K2">
-        <v>54.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>52.6</v>
-      </c>
-      <c r="C3">
-        <v>48.4</v>
-      </c>
-      <c r="D3">
-        <v>0.4</v>
-      </c>
-      <c r="E3">
-        <v>3.3</v>
-      </c>
-      <c r="F3">
-        <v>115.4</v>
-      </c>
-      <c r="G3">
-        <v>118.7</v>
-      </c>
-      <c r="H3">
-        <v>160</v>
-      </c>
-      <c r="I3">
-        <v>88</v>
-      </c>
-      <c r="J3">
-        <v>75</v>
-      </c>
-      <c r="K3">
-        <v>72.44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>12.3</v>
-      </c>
-      <c r="B4">
-        <v>40.6</v>
-      </c>
-      <c r="C4">
-        <v>27.7</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-      <c r="E4">
-        <v>1.6</v>
-      </c>
-      <c r="F4">
-        <v>80.8</v>
-      </c>
-      <c r="G4">
-        <v>82.3</v>
-      </c>
-      <c r="H4">
-        <v>240</v>
-      </c>
-      <c r="I4">
-        <v>132</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4">
-        <v>90.66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>13.2</v>
-      </c>
-      <c r="B5">
-        <v>45.9</v>
-      </c>
-      <c r="C5">
-        <v>29.6</v>
-      </c>
-      <c r="D5">
-        <v>0.4</v>
-      </c>
-      <c r="E5">
-        <v>2.5</v>
-      </c>
-      <c r="F5">
-        <v>89.2</v>
-      </c>
-      <c r="G5">
-        <v>91.6</v>
-      </c>
-      <c r="I5">
-        <v>176</v>
-      </c>
-      <c r="J5">
-        <v>125</v>
-      </c>
-      <c r="K5">
-        <v>108.88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>11.3</v>
-      </c>
-      <c r="B6">
-        <v>40.6</v>
-      </c>
-      <c r="C6">
-        <v>21.6</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6">
-        <v>1.6</v>
-      </c>
-      <c r="F6">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="G6">
-        <v>75.2</v>
-      </c>
-      <c r="I6">
-        <v>220</v>
-      </c>
-      <c r="J6">
-        <v>150</v>
-      </c>
-      <c r="K6">
-        <v>127.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>15.8</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>8.9</v>
-      </c>
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>44.8</v>
-      </c>
-      <c r="G7">
-        <v>50.8</v>
-      </c>
-      <c r="J7">
-        <v>175</v>
-      </c>
-      <c r="K7">
-        <v>145.32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>14.3</v>
-      </c>
-      <c r="B8">
-        <v>45.3</v>
-      </c>
-      <c r="C8">
-        <v>25.4</v>
-      </c>
-      <c r="D8">
-        <v>0.2</v>
-      </c>
-      <c r="E8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F8">
-        <v>85.2</v>
-      </c>
-      <c r="G8">
-        <v>86.3</v>
-      </c>
-      <c r="J8">
-        <v>200</v>
-      </c>
-      <c r="K8">
-        <v>163.54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>15.5</v>
-      </c>
-      <c r="B9">
-        <v>50.6</v>
-      </c>
-      <c r="C9">
-        <v>28.2</v>
-      </c>
-      <c r="D9">
-        <v>0.2</v>
-      </c>
-      <c r="E9">
-        <v>1.7</v>
-      </c>
-      <c r="F9">
-        <v>94.5</v>
-      </c>
-      <c r="G9">
-        <v>96.2</v>
-      </c>
-      <c r="J9">
-        <v>225</v>
-      </c>
-      <c r="K9">
-        <v>181.76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>13.3</v>
-      </c>
-      <c r="B10">
-        <v>59.2</v>
-      </c>
-      <c r="C10">
-        <v>30.6</v>
-      </c>
-      <c r="D10">
-        <v>0.2</v>
-      </c>
-      <c r="E10">
-        <v>1.8</v>
-      </c>
-      <c r="F10">
-        <v>103.3</v>
-      </c>
-      <c r="G10">
-        <v>105.1</v>
-      </c>
-      <c r="K10">
-        <v>199.98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>12.6</v>
-      </c>
-      <c r="B11">
-        <v>37.9</v>
-      </c>
-      <c r="C11">
-        <v>41.8</v>
-      </c>
-      <c r="D11">
-        <v>0.2</v>
-      </c>
-      <c r="E11">
-        <v>2.4</v>
-      </c>
-      <c r="F11">
-        <v>92.6</v>
-      </c>
-      <c r="G11">
-        <v>94.9</v>
-      </c>
-      <c r="K11">
-        <v>218.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11.7</v>
-      </c>
-      <c r="B12">
-        <v>28.6</v>
-      </c>
-      <c r="C12">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="D12">
-        <v>0.2</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="G12">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12.2</v>
-      </c>
-      <c r="B13">
-        <v>30.6</v>
-      </c>
-      <c r="C13">
-        <v>57.3</v>
-      </c>
-      <c r="D13">
-        <v>0.2</v>
-      </c>
-      <c r="E13">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F13">
-        <v>100.4</v>
-      </c>
-      <c r="G13">
-        <v>109.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>16.2</v>
-      </c>
-      <c r="B14">
-        <v>53.2</v>
-      </c>
-      <c r="C14">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="D14">
-        <v>0.2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>105.9</v>
-      </c>
-      <c r="G14">
-        <v>107.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14.3</v>
-      </c>
-      <c r="B15">
-        <v>32.6</v>
-      </c>
-      <c r="C15">
-        <v>61.6</v>
-      </c>
-      <c r="D15">
-        <v>0.3</v>
-      </c>
-      <c r="E15">
-        <v>6.6</v>
-      </c>
-      <c r="F15">
-        <v>108.7</v>
-      </c>
-      <c r="G15">
-        <v>115.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15.5</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>8.5</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
-      <c r="E16">
-        <v>0.7</v>
-      </c>
-      <c r="F16">
-        <v>40</v>
-      </c>
-      <c r="G16">
-        <v>40.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>11.2</v>
-      </c>
-      <c r="B17">
-        <v>35.9</v>
-      </c>
-      <c r="C17">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="D17">
-        <v>0.2</v>
-      </c>
-      <c r="E17">
-        <v>5.3</v>
-      </c>
-      <c r="F17">
-        <v>83</v>
-      </c>
-      <c r="G17">
-        <v>88.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11.7</v>
-      </c>
-      <c r="B18">
-        <v>39.9</v>
-      </c>
-      <c r="C18">
-        <v>42.8</v>
-      </c>
-      <c r="D18">
-        <v>0.2</v>
-      </c>
-      <c r="E18">
-        <v>11.7</v>
-      </c>
-      <c r="F18">
-        <v>94.6</v>
-      </c>
-      <c r="G18">
-        <v>106.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>12.9</v>
-      </c>
-      <c r="B19">
-        <v>12.6</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>0.2</v>
-      </c>
-      <c r="E19">
-        <v>2.4</v>
-      </c>
-      <c r="F19">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="G19">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>15.9</v>
-      </c>
-      <c r="B20">
-        <v>21.3</v>
-      </c>
-      <c r="C20">
-        <v>11.3</v>
-      </c>
-      <c r="D20">
-        <v>0.1</v>
-      </c>
-      <c r="E20">
-        <v>3.9</v>
-      </c>
-      <c r="F20">
-        <v>48.6</v>
-      </c>
-      <c r="G20">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>12.5</v>
-      </c>
-      <c r="B21">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>14.6</v>
-      </c>
-      <c r="D21">
-        <v>0.1</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>51.1</v>
-      </c>
-      <c r="G21">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>18.7</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>9.4</v>
-      </c>
-      <c r="D22">
-        <v>0.1</v>
-      </c>
-      <c r="E22">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F22">
-        <v>48.2</v>
-      </c>
-      <c r="G22">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <v>13.3</v>
-      </c>
-      <c r="C23">
-        <v>7.5</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>2.5</v>
-      </c>
-      <c r="F23">
-        <v>35.9</v>
-      </c>
-      <c r="G23">
-        <v>38.299999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>18.3</v>
-      </c>
-      <c r="B24">
-        <v>38.6</v>
-      </c>
-      <c r="C24">
-        <v>62.5</v>
-      </c>
-      <c r="D24">
-        <v>0.5</v>
-      </c>
-      <c r="E24">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F24">
-        <v>119.9</v>
-      </c>
-      <c r="G24">
-        <v>128.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>14.5</v>
-      </c>
-      <c r="B25">
-        <v>37.9</v>
-      </c>
-      <c r="C25">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="D25">
-        <v>0.2</v>
-      </c>
-      <c r="E25">
-        <v>8.9</v>
-      </c>
-      <c r="F25">
-        <v>86.5</v>
-      </c>
-      <c r="G25">
-        <v>95.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>20.5</v>
-      </c>
-      <c r="B26">
-        <v>17.3</v>
-      </c>
-      <c r="C26">
-        <v>8.9</v>
-      </c>
-      <c r="D26">
-        <v>0.1</v>
-      </c>
-      <c r="E26">
-        <v>6.2</v>
-      </c>
-      <c r="F26">
-        <v>46.9</v>
-      </c>
-      <c r="G26">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>11.8</v>
-      </c>
-      <c r="B27">
-        <v>41.3</v>
-      </c>
-      <c r="C27">
-        <v>55.9</v>
-      </c>
-      <c r="D27">
-        <v>0.4</v>
-      </c>
-      <c r="E27">
-        <v>11.8</v>
-      </c>
-      <c r="F27">
-        <v>109.5</v>
-      </c>
-      <c r="G27">
-        <v>121.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>22.4</v>
-      </c>
-      <c r="B28">
-        <v>24.6</v>
-      </c>
-      <c r="C28">
-        <v>13.2</v>
-      </c>
-      <c r="D28">
-        <v>0.3</v>
-      </c>
-      <c r="E28">
-        <v>6.9</v>
-      </c>
-      <c r="F28">
-        <v>60.5</v>
-      </c>
-      <c r="G28">
-        <v>67.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>12.1</v>
-      </c>
-      <c r="B29">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="C29">
-        <v>87</v>
-      </c>
-      <c r="D29">
-        <v>0.8</v>
-      </c>
-      <c r="E29">
-        <v>17.2</v>
-      </c>
-      <c r="F29">
-        <v>135.1</v>
-      </c>
-      <c r="G29">
-        <v>152.30000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B30">
-        <v>25.3</v>
-      </c>
-      <c r="C30">
-        <v>53.6</v>
-      </c>
-      <c r="D30">
-        <v>0.6</v>
-      </c>
-      <c r="E30">
-        <v>14.7</v>
-      </c>
-      <c r="F30">
-        <v>88.3</v>
-      </c>
-      <c r="G30">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>12.9</v>
-      </c>
-      <c r="B31">
-        <v>31.9</v>
-      </c>
-      <c r="C31">
-        <v>55.5</v>
-      </c>
-      <c r="D31">
-        <v>0.5</v>
-      </c>
-      <c r="E31">
-        <v>15</v>
-      </c>
-      <c r="F31">
-        <v>100.9</v>
-      </c>
-      <c r="G31">
-        <v>115.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>13.2</v>
-      </c>
-      <c r="B32">
-        <v>21.3</v>
-      </c>
-      <c r="C32">
-        <v>40</v>
-      </c>
-      <c r="D32">
-        <v>0.4</v>
-      </c>
-      <c r="E32">
-        <v>7.7</v>
-      </c>
-      <c r="F32">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="G32">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>13.3</v>
-      </c>
-      <c r="B33">
-        <v>32.6</v>
-      </c>
-      <c r="C33">
-        <v>93.1</v>
-      </c>
-      <c r="D33">
-        <v>0.7</v>
-      </c>
-      <c r="E33">
-        <v>7.5</v>
-      </c>
-      <c r="F33">
-        <v>139.69999999999999</v>
-      </c>
-      <c r="G33">
-        <v>147.19999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>14</v>
-      </c>
-      <c r="B34">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="C34">
-        <v>63.9</v>
-      </c>
-      <c r="D34">
-        <v>0.5</v>
-      </c>
-      <c r="E34">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F34">
-        <v>117.8</v>
-      </c>
-      <c r="G34">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>19.8</v>
-      </c>
-      <c r="B35">
-        <v>55.2</v>
-      </c>
-      <c r="C35">
-        <v>27.3</v>
-      </c>
-      <c r="D35">
-        <v>0.2</v>
-      </c>
-      <c r="E35">
-        <v>1.4</v>
-      </c>
-      <c r="F35">
-        <v>102.5</v>
-      </c>
-      <c r="G35">
-        <v>103.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>12.5</v>
-      </c>
-      <c r="B36">
-        <v>31.9</v>
-      </c>
-      <c r="C36">
-        <v>82.3</v>
-      </c>
-      <c r="D36">
-        <v>0.3</v>
-      </c>
-      <c r="E36">
-        <v>12.6</v>
-      </c>
-      <c r="F36">
-        <v>127</v>
-      </c>
-      <c r="G36">
-        <v>139.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>5.2</v>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>23.5</v>
-      </c>
-      <c r="D37">
-        <v>0.2</v>
-      </c>
-      <c r="E37">
-        <v>5.4</v>
-      </c>
-      <c r="F37">
-        <v>36.9</v>
-      </c>
-      <c r="G37">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>17.7</v>
-      </c>
-      <c r="B38">
-        <v>45.9</v>
-      </c>
-      <c r="C38">
-        <v>24</v>
-      </c>
-      <c r="D38">
-        <v>0.1</v>
-      </c>
-      <c r="E38">
-        <v>1.8</v>
-      </c>
-      <c r="F38">
-        <v>87.7</v>
-      </c>
-      <c r="G38">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>17.5</v>
-      </c>
-      <c r="B39">
-        <v>40.6</v>
-      </c>
-      <c r="C39">
-        <v>32</v>
-      </c>
-      <c r="D39">
-        <v>0.4</v>
-      </c>
-      <c r="E39">
-        <v>3.3</v>
-      </c>
-      <c r="F39">
-        <v>90.5</v>
-      </c>
-      <c r="G39">
-        <v>93.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>15.9</v>
-      </c>
-      <c r="B40">
-        <v>45.9</v>
-      </c>
-      <c r="C40">
-        <v>38.5</v>
-      </c>
-      <c r="D40">
-        <v>0.2</v>
-      </c>
-      <c r="E40">
-        <v>3.8</v>
-      </c>
-      <c r="F40">
-        <v>100.6</v>
-      </c>
-      <c r="G40">
-        <v>104.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>15</v>
-      </c>
-      <c r="B41">
-        <v>40.6</v>
-      </c>
-      <c r="C41">
-        <v>91.7</v>
-      </c>
-      <c r="D41">
-        <v>0.5</v>
-      </c>
-      <c r="E41">
-        <v>7.5</v>
-      </c>
-      <c r="F41">
-        <v>147.69999999999999</v>
-      </c>
-      <c r="G41">
-        <v>155.19999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>14.1</v>
-      </c>
-      <c r="B42">
-        <v>43.9</v>
-      </c>
-      <c r="C42">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="D42">
-        <v>0.3</v>
-      </c>
-      <c r="E42">
-        <v>2.4</v>
-      </c>
-      <c r="F42">
-        <v>95</v>
-      </c>
-      <c r="G42">
-        <v>97.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>14.4</v>
-      </c>
-      <c r="B43">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="C43">
-        <v>30.1</v>
-      </c>
-      <c r="D43">
-        <v>0.2</v>
-      </c>
-      <c r="E43">
-        <v>9.6</v>
-      </c>
-      <c r="F43">
-        <v>82</v>
-      </c>
-      <c r="G43">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>12.7</v>
-      </c>
-      <c r="B44">
-        <v>47.3</v>
-      </c>
-      <c r="C44">
-        <v>32.4</v>
-      </c>
-      <c r="D44">
-        <v>0.3</v>
-      </c>
-      <c r="E44">
-        <v>3.4</v>
-      </c>
-      <c r="F44">
-        <v>92.6</v>
-      </c>
-      <c r="G44">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>11.1</v>
-      </c>
-      <c r="B45">
-        <v>47.3</v>
-      </c>
-      <c r="C45">
-        <v>31.5</v>
-      </c>
-      <c r="D45">
-        <v>0.2</v>
-      </c>
-      <c r="E45">
-        <v>7.1</v>
-      </c>
-      <c r="F45">
-        <v>90</v>
-      </c>
-      <c r="G45">
-        <v>97.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>14.6</v>
-      </c>
-      <c r="B46">
-        <v>44.6</v>
-      </c>
-      <c r="C46">
-        <v>44.7</v>
-      </c>
-      <c r="D46">
-        <v>0.2</v>
-      </c>
-      <c r="E46">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F46">
-        <v>104.1</v>
-      </c>
-      <c r="G46">
-        <v>112.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>18.8</v>
-      </c>
-      <c r="B47">
-        <v>41.3</v>
-      </c>
-      <c r="C47">
-        <v>40.9</v>
-      </c>
-      <c r="D47">
-        <v>0.2</v>
-      </c>
-      <c r="E47">
-        <v>2.5</v>
-      </c>
-      <c r="F47">
-        <v>101.1</v>
-      </c>
-      <c r="G47">
-        <v>103.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>14.7</v>
-      </c>
-      <c r="B48">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="C48">
-        <v>40.9</v>
-      </c>
-      <c r="D48">
-        <v>0.2</v>
-      </c>
-      <c r="E48">
-        <v>0.6</v>
-      </c>
-      <c r="F48">
-        <v>93.1</v>
-      </c>
-      <c r="G48">
-        <v>93.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>12.2</v>
-      </c>
-      <c r="B49">
-        <v>43.9</v>
-      </c>
-      <c r="C49">
-        <v>45.1</v>
-      </c>
-      <c r="D49">
-        <v>0.2</v>
-      </c>
-      <c r="E49">
-        <v>4.3</v>
-      </c>
-      <c r="F49">
-        <v>101.5</v>
-      </c>
-      <c r="G49">
-        <v>105.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>19.7</v>
-      </c>
-      <c r="B50">
-        <v>43.3</v>
-      </c>
-      <c r="C50">
-        <v>37.6</v>
-      </c>
-      <c r="D50">
-        <v>0.2</v>
-      </c>
-      <c r="E50">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F50">
-        <v>100.7</v>
-      </c>
-      <c r="G50">
-        <v>109.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>18</v>
-      </c>
-      <c r="B51">
-        <v>45.3</v>
-      </c>
-      <c r="C51">
-        <v>32.4</v>
-      </c>
-      <c r="D51">
-        <v>0.3</v>
-      </c>
-      <c r="E51">
-        <v>1.9</v>
-      </c>
-      <c r="F51">
-        <v>96</v>
-      </c>
-      <c r="G51">
-        <v>97.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>18</v>
-      </c>
-      <c r="B52">
-        <v>45.9</v>
-      </c>
-      <c r="C52">
-        <v>48.9</v>
-      </c>
-      <c r="D52">
-        <v>0.3</v>
-      </c>
-      <c r="E52">
-        <v>6.6</v>
-      </c>
-      <c r="F52">
-        <v>113.1</v>
-      </c>
-      <c r="G52">
-        <v>119.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="B53">
-        <v>42.6</v>
-      </c>
-      <c r="C53">
-        <v>67.2</v>
-      </c>
-      <c r="D53">
-        <v>0.6</v>
-      </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53">
-        <v>127.4</v>
-      </c>
-      <c r="G53">
-        <v>133.30000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>17.7</v>
-      </c>
-      <c r="B54">
-        <v>43.9</v>
-      </c>
-      <c r="C54">
-        <v>51.2</v>
-      </c>
-      <c r="D54">
-        <v>0.3</v>
-      </c>
-      <c r="E54">
-        <v>3.4</v>
-      </c>
-      <c r="F54">
-        <v>113.2</v>
-      </c>
-      <c r="G54">
-        <v>116.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="B55">
-        <v>43.3</v>
-      </c>
-      <c r="C55">
-        <v>31.5</v>
-      </c>
-      <c r="D55">
-        <v>0.2</v>
-      </c>
-      <c r="E55">
-        <v>3.4</v>
-      </c>
-      <c r="F55">
-        <v>95.3</v>
-      </c>
-      <c r="G55">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>18.2</v>
-      </c>
-      <c r="B56">
-        <v>45.9</v>
-      </c>
-      <c r="C56">
-        <v>41.8</v>
-      </c>
-      <c r="D56">
-        <v>0.3</v>
-      </c>
-      <c r="E56">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F56">
-        <v>106.2</v>
-      </c>
-      <c r="G56">
-        <v>110.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="B57">
-        <v>39.9</v>
-      </c>
-      <c r="C57">
-        <v>61.6</v>
-      </c>
-      <c r="D57">
-        <v>0.6</v>
-      </c>
-      <c r="E57">
-        <v>6.2</v>
-      </c>
-      <c r="F57">
-        <v>119</v>
-      </c>
-      <c r="G57">
-        <v>125.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="B58">
-        <v>43.9</v>
-      </c>
-      <c r="C58">
-        <v>89.8</v>
-      </c>
-      <c r="D58">
-        <v>0.7</v>
-      </c>
-      <c r="E58">
-        <v>10.1</v>
-      </c>
-      <c r="F58">
-        <v>152.30000000000001</v>
-      </c>
-      <c r="G58">
-        <v>162.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="B59">
-        <v>40.6</v>
-      </c>
-      <c r="C59">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="D59">
-        <v>0.2</v>
-      </c>
-      <c r="E59">
-        <v>1.5</v>
-      </c>
-      <c r="F59">
-        <v>92.2</v>
-      </c>
-      <c r="G59">
-        <v>93.7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>15.7</v>
-      </c>
-      <c r="B60">
-        <v>45.3</v>
-      </c>
-      <c r="C60">
-        <v>48.4</v>
-      </c>
-      <c r="D60">
-        <v>0.3</v>
-      </c>
-      <c r="E60">
-        <v>5.6</v>
-      </c>
-      <c r="F60">
-        <v>109.7</v>
-      </c>
-      <c r="G60">
-        <v>115.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>18.2</v>
-      </c>
-      <c r="B61">
-        <v>48.6</v>
-      </c>
-      <c r="C61">
-        <v>26.3</v>
-      </c>
-      <c r="D61">
-        <v>0.2</v>
-      </c>
-      <c r="E61">
-        <v>3.4</v>
-      </c>
-      <c r="F61">
-        <v>93.3</v>
-      </c>
-      <c r="G61">
-        <v>96.7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="B62">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="C62">
-        <v>31.5</v>
-      </c>
-      <c r="D62">
-        <v>0.2</v>
-      </c>
-      <c r="E62">
-        <v>0.9</v>
-      </c>
-      <c r="F62">
-        <v>88.4</v>
-      </c>
-      <c r="G62">
-        <v>89.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>13.6</v>
-      </c>
-      <c r="B63">
-        <v>37.9</v>
-      </c>
-      <c r="C63">
-        <v>30.6</v>
-      </c>
-      <c r="D63">
-        <v>0.2</v>
-      </c>
-      <c r="E63">
-        <v>1.7</v>
-      </c>
-      <c r="F63">
-        <v>82.4</v>
-      </c>
-      <c r="G63">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>13.8</v>
-      </c>
-      <c r="B64">
-        <v>38.6</v>
-      </c>
-      <c r="C64">
-        <v>25.4</v>
-      </c>
-      <c r="D64">
-        <v>0.2</v>
-      </c>
-      <c r="E64">
-        <v>3.7</v>
-      </c>
-      <c r="F64">
-        <v>78</v>
-      </c>
-      <c r="G64">
-        <v>81.7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>16.2</v>
-      </c>
-      <c r="B65">
-        <v>52.6</v>
-      </c>
-      <c r="C65">
-        <v>40</v>
-      </c>
-      <c r="D65">
-        <v>0.3</v>
-      </c>
-      <c r="E65">
-        <v>1.4</v>
-      </c>
-      <c r="F65">
-        <v>109</v>
-      </c>
-      <c r="G65">
-        <v>110.3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>12.7</v>
-      </c>
-      <c r="B66">
-        <v>45.9</v>
-      </c>
-      <c r="C66">
-        <v>47</v>
-      </c>
-      <c r="D66">
-        <v>0.3</v>
-      </c>
-      <c r="E66">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F66">
-        <v>105.9</v>
-      </c>
-      <c r="G66">
-        <v>108.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>15.6</v>
-      </c>
-      <c r="B67">
-        <v>34.6</v>
-      </c>
-      <c r="C67">
-        <v>22.6</v>
-      </c>
-      <c r="D67">
-        <v>0.2</v>
-      </c>
-      <c r="E67">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F67">
-        <v>73</v>
-      </c>
-      <c r="G67">
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>15</v>
-      </c>
-      <c r="B68">
-        <v>46.6</v>
-      </c>
-      <c r="C68">
-        <v>25.9</v>
-      </c>
-      <c r="D68">
-        <v>0.4</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68">
-        <v>87.8</v>
-      </c>
-      <c r="G68">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>15.8</v>
-      </c>
-      <c r="B69">
-        <v>37.9</v>
-      </c>
-      <c r="C69">
-        <v>25.9</v>
-      </c>
-      <c r="D69">
-        <v>0.3</v>
-      </c>
-      <c r="E69">
-        <v>3.3</v>
-      </c>
-      <c r="F69">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="G69">
-        <v>83.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>13.4</v>
-      </c>
-      <c r="B70">
-        <v>31.9</v>
-      </c>
-      <c r="C70">
-        <v>21.2</v>
-      </c>
-      <c r="D70">
-        <v>0.3</v>
-      </c>
-      <c r="E70">
-        <v>7.3</v>
-      </c>
-      <c r="F70">
-        <v>66.8</v>
-      </c>
-      <c r="G70">
-        <v>74.099999999999994</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>14.7</v>
-      </c>
-      <c r="B71">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="C71">
-        <v>53.1</v>
-      </c>
-      <c r="D71">
-        <v>0.3</v>
-      </c>
-      <c r="E71">
-        <v>3.6</v>
-      </c>
-      <c r="F71">
-        <v>105.4</v>
-      </c>
-      <c r="G71">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>15.3</v>
-      </c>
-      <c r="B72">
-        <v>49.9</v>
-      </c>
-      <c r="C72">
-        <v>30.1</v>
-      </c>
-      <c r="D72">
-        <v>0.2</v>
-      </c>
-      <c r="E72">
-        <v>2.6</v>
-      </c>
-      <c r="F72">
-        <v>95.5</v>
-      </c>
-      <c r="G72">
-        <v>98.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>12.7</v>
-      </c>
-      <c r="B73">
-        <v>31.9</v>
-      </c>
-      <c r="C73">
-        <v>26.3</v>
-      </c>
-      <c r="D73">
-        <v>0.2</v>
-      </c>
-      <c r="E73">
-        <v>5.9</v>
-      </c>
-      <c r="F73">
-        <v>71.2</v>
-      </c>
-      <c r="G73">
-        <v>77.099999999999994</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="B74">
-        <v>37.9</v>
-      </c>
-      <c r="C74">
-        <v>38.5</v>
-      </c>
-      <c r="D74">
-        <v>0.2</v>
-      </c>
-      <c r="E74">
-        <v>6.1</v>
-      </c>
-      <c r="F74">
-        <v>96.8</v>
-      </c>
-      <c r="G74">
-        <v>102.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>15.8</v>
-      </c>
-      <c r="B75">
-        <v>43.3</v>
-      </c>
-      <c r="C75">
-        <v>29.6</v>
-      </c>
-      <c r="D75">
-        <v>0.3</v>
-      </c>
-      <c r="E75">
-        <v>2.6</v>
-      </c>
-      <c r="F75">
-        <v>88.9</v>
-      </c>
-      <c r="G75">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>14.6</v>
-      </c>
-      <c r="B76">
-        <v>48.6</v>
-      </c>
-      <c r="C76">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="D76">
-        <v>0.2</v>
-      </c>
-      <c r="E76">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F76">
-        <v>100</v>
-      </c>
-      <c r="G76">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="B77">
-        <v>45.3</v>
-      </c>
-      <c r="C77">
-        <v>146.19999999999999</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>6.4</v>
-      </c>
-      <c r="F77">
-        <v>211.8</v>
-      </c>
-      <c r="G77">
-        <v>218.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>16.5</v>
-      </c>
-      <c r="B78">
-        <v>36.6</v>
-      </c>
-      <c r="C78">
-        <v>41.4</v>
-      </c>
-      <c r="D78">
-        <v>0.3</v>
-      </c>
-      <c r="E78">
-        <v>5.7</v>
-      </c>
-      <c r="F78">
-        <v>94.8</v>
-      </c>
-      <c r="G78">
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>13.4</v>
-      </c>
-      <c r="B79">
-        <v>58.6</v>
-      </c>
-      <c r="C79">
-        <v>24.4</v>
-      </c>
-      <c r="D79">
-        <v>0.2</v>
-      </c>
-      <c r="E79">
-        <v>3.2</v>
-      </c>
-      <c r="F79">
-        <v>96.6</v>
-      </c>
-      <c r="G79">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>14.4</v>
-      </c>
-      <c r="B80">
-        <v>40.6</v>
-      </c>
-      <c r="C80">
-        <v>44.2</v>
-      </c>
-      <c r="D80">
-        <v>0.6</v>
-      </c>
-      <c r="E80">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F80">
-        <v>99.8</v>
-      </c>
-      <c r="G80">
-        <v>104.8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>15</v>
-      </c>
-      <c r="B81">
-        <v>19.3</v>
-      </c>
-      <c r="C81">
-        <v>13.2</v>
-      </c>
-      <c r="D81">
-        <v>0.1</v>
-      </c>
-      <c r="E81">
-        <v>2.6</v>
-      </c>
-      <c r="F81">
-        <v>47.5</v>
-      </c>
-      <c r="G81">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>14</v>
-      </c>
-      <c r="B82">
-        <v>43.3</v>
-      </c>
-      <c r="C82">
-        <v>31</v>
-      </c>
-      <c r="D82">
-        <v>0.4</v>
-      </c>
-      <c r="E82">
-        <v>2.7</v>
-      </c>
-      <c r="F82">
-        <v>88.6</v>
-      </c>
-      <c r="G82">
-        <v>91.3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>12.1</v>
-      </c>
-      <c r="B83">
-        <v>47.3</v>
-      </c>
-      <c r="C83">
-        <v>55.9</v>
-      </c>
-      <c r="D83">
-        <v>0.6</v>
-      </c>
-      <c r="E83">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F83">
-        <v>115.9</v>
-      </c>
-      <c r="G83">
-        <v>118.2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>18</v>
-      </c>
-      <c r="B84">
-        <v>23.3</v>
-      </c>
-      <c r="C84">
-        <v>14.1</v>
-      </c>
-      <c r="D84">
-        <v>0.1</v>
-      </c>
-      <c r="E84">
-        <v>4.5</v>
-      </c>
-      <c r="F84">
-        <v>55.6</v>
-      </c>
-      <c r="G84">
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>13.9</v>
-      </c>
-      <c r="B85">
-        <v>43.3</v>
-      </c>
-      <c r="C85">
-        <v>30.1</v>
-      </c>
-      <c r="D85">
-        <v>0.3</v>
-      </c>
-      <c r="E85">
-        <v>1.7</v>
-      </c>
-      <c r="F85">
-        <v>87.5</v>
-      </c>
-      <c r="G85">
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>12.5</v>
-      </c>
-      <c r="B86">
-        <v>45.3</v>
-      </c>
-      <c r="C86">
-        <v>31</v>
-      </c>
-      <c r="D86">
-        <v>0.3</v>
-      </c>
-      <c r="E86">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F86">
-        <v>89.1</v>
-      </c>
-      <c r="G86">
-        <v>97.9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>14.2</v>
-      </c>
-      <c r="B87">
-        <v>27.3</v>
-      </c>
-      <c r="C87">
-        <v>30.6</v>
-      </c>
-      <c r="D87">
-        <v>0.3</v>
-      </c>
-      <c r="E87">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F87">
-        <v>72.3</v>
-      </c>
-      <c r="G87">
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>11.5</v>
-      </c>
-      <c r="B88">
-        <v>43.9</v>
-      </c>
-      <c r="C88">
-        <v>42.8</v>
-      </c>
-      <c r="D88">
-        <v>0.5</v>
-      </c>
-      <c r="E88">
-        <v>10.1</v>
-      </c>
-      <c r="F88">
-        <v>98.7</v>
-      </c>
-      <c r="G88">
-        <v>108.8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>16</v>
-      </c>
-      <c r="B89">
-        <v>43.3</v>
-      </c>
-      <c r="C89">
-        <v>57.8</v>
-      </c>
-      <c r="D89">
-        <v>0.4</v>
-      </c>
-      <c r="E89">
-        <v>7.3</v>
-      </c>
-      <c r="F89">
-        <v>117.5</v>
-      </c>
-      <c r="G89">
-        <v>124.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>16.7</v>
-      </c>
-      <c r="B90">
-        <v>24</v>
-      </c>
-      <c r="C90">
-        <v>15.5</v>
-      </c>
-      <c r="D90">
-        <v>0.1</v>
-      </c>
-      <c r="E90">
-        <v>2.5</v>
-      </c>
-      <c r="F90">
-        <v>56.3</v>
-      </c>
-      <c r="G90">
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>11.7</v>
-      </c>
-      <c r="B91">
-        <v>33.9</v>
-      </c>
-      <c r="C91">
-        <v>46.1</v>
-      </c>
-      <c r="D91">
-        <v>0.2</v>
-      </c>
-      <c r="E91">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F91">
-        <v>91.9</v>
-      </c>
-      <c r="G91">
-        <v>101.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>13.8</v>
-      </c>
-      <c r="B92">
-        <v>42.6</v>
-      </c>
-      <c r="C92">
-        <v>94</v>
-      </c>
-      <c r="D92">
-        <v>0.8</v>
-      </c>
-      <c r="E92">
-        <v>14.7</v>
-      </c>
-      <c r="F92">
-        <v>151.19999999999999</v>
-      </c>
-      <c r="G92">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>15</v>
-      </c>
-      <c r="B93">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C93">
-        <v>11.3</v>
-      </c>
-      <c r="D93">
-        <v>0.1</v>
-      </c>
-      <c r="E93">
-        <v>3</v>
-      </c>
-      <c r="F93">
-        <v>45.1</v>
-      </c>
-      <c r="G93">
-        <v>48.1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>14.7</v>
-      </c>
-      <c r="B94">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C94">
-        <v>9.9</v>
-      </c>
-      <c r="D94">
-        <v>0.1</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94">
-        <v>43.3</v>
-      </c>
-      <c r="G94">
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="B95">
-        <v>21.3</v>
-      </c>
-      <c r="C95">
-        <v>8.9</v>
-      </c>
-      <c r="D95">
-        <v>0.1</v>
-      </c>
-      <c r="E95">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F95">
-        <v>48.2</v>
-      </c>
-      <c r="G95">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="B96">
-        <v>58.6</v>
-      </c>
-      <c r="C96">
-        <v>29.1</v>
-      </c>
-      <c r="D96">
-        <v>0.1</v>
-      </c>
-      <c r="E96">
-        <v>1.5</v>
-      </c>
-      <c r="F96">
-        <v>103.9</v>
-      </c>
-      <c r="G96">
-        <v>105.4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="B97">
-        <v>48.6</v>
-      </c>
-      <c r="C97">
-        <v>50.3</v>
-      </c>
-      <c r="D97">
-        <v>0.3</v>
-      </c>
-      <c r="E97">
-        <v>6</v>
-      </c>
-      <c r="F97">
-        <v>117.8</v>
-      </c>
-      <c r="G97">
-        <v>123.7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="B98">
-        <v>53.2</v>
-      </c>
-      <c r="C98">
-        <v>55.5</v>
-      </c>
-      <c r="D98">
-        <v>0.6</v>
-      </c>
-      <c r="E98">
-        <v>3.9</v>
-      </c>
-      <c r="F98">
-        <v>127.4</v>
-      </c>
-      <c r="G98">
-        <v>131.4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>16.3</v>
-      </c>
-      <c r="B99">
-        <v>30.6</v>
-      </c>
-      <c r="C99">
-        <v>70.5</v>
-      </c>
-      <c r="D99">
-        <v>0.5</v>
-      </c>
-      <c r="E99">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F99">
-        <v>117.9</v>
-      </c>
-      <c r="G99">
-        <v>128.1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>14.1</v>
-      </c>
-      <c r="B100">
-        <v>44.6</v>
-      </c>
-      <c r="C100">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="D100">
-        <v>0.6</v>
-      </c>
-      <c r="E100">
-        <v>6.6</v>
-      </c>
-      <c r="F100">
-        <v>131.69999999999999</v>
-      </c>
-      <c r="G100">
-        <v>138.4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>15</v>
-      </c>
-      <c r="B101">
-        <v>30.6</v>
-      </c>
-      <c r="C101">
-        <v>32</v>
-      </c>
-      <c r="D101">
-        <v>0.4</v>
-      </c>
-      <c r="E101">
-        <v>5.9</v>
-      </c>
-      <c r="F101">
-        <v>78</v>
-      </c>
-      <c r="G101">
-        <v>83.9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>17.3</v>
-      </c>
-      <c r="B102">
-        <v>26</v>
-      </c>
-      <c r="C102">
-        <v>12.7</v>
-      </c>
-      <c r="D102">
-        <v>0.3</v>
-      </c>
-      <c r="E102">
-        <v>9.1</v>
-      </c>
-      <c r="F102">
-        <v>56.2</v>
-      </c>
-      <c r="G102">
-        <v>65.400000000000006</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>14.4</v>
-      </c>
-      <c r="B103">
-        <v>38.6</v>
-      </c>
-      <c r="C103">
-        <v>101.5</v>
-      </c>
-      <c r="D103">
-        <v>0.4</v>
-      </c>
-      <c r="E103">
-        <v>10.5</v>
-      </c>
-      <c r="F103">
-        <v>155</v>
-      </c>
-      <c r="G103">
-        <v>165.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>12.9</v>
-      </c>
-      <c r="B104">
-        <v>42.6</v>
-      </c>
-      <c r="C104">
-        <v>82.7</v>
-      </c>
-      <c r="D104">
-        <v>0.7</v>
-      </c>
-      <c r="E104">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="F104">
-        <v>139</v>
-      </c>
-      <c r="G104">
-        <v>172.2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>12.3</v>
-      </c>
-      <c r="B105">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="C105">
-        <v>89.3</v>
-      </c>
-      <c r="D105">
-        <v>0.6</v>
-      </c>
-      <c r="E105">
-        <v>10.8</v>
-      </c>
-      <c r="F105">
-        <v>141.5</v>
-      </c>
-      <c r="G105">
-        <v>152.30000000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>15.6</v>
-      </c>
-      <c r="B106">
-        <v>41.9</v>
-      </c>
-      <c r="C106">
-        <v>25.9</v>
-      </c>
-      <c r="D106">
-        <v>0.1</v>
-      </c>
-      <c r="E106">
-        <v>2</v>
-      </c>
-      <c r="F106">
-        <v>83.5</v>
-      </c>
-      <c r="G106">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>15.2</v>
-      </c>
-      <c r="B107">
-        <v>19.3</v>
-      </c>
-      <c r="C107">
-        <v>12.2</v>
-      </c>
-      <c r="D107">
-        <v>0.1</v>
-      </c>
-      <c r="E107">
-        <v>1.9</v>
-      </c>
-      <c r="F107">
-        <v>46.8</v>
-      </c>
-      <c r="G107">
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>14.2</v>
-      </c>
-      <c r="B108">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C108">
-        <v>8.9</v>
-      </c>
-      <c r="D108">
-        <v>0.1</v>
-      </c>
-      <c r="E108">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F108">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="G108">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>10.4</v>
-      </c>
-      <c r="B109">
-        <v>14</v>
-      </c>
-      <c r="C109">
-        <v>7.1</v>
-      </c>
-      <c r="D109">
-        <v>0.2</v>
-      </c>
-      <c r="E109">
-        <v>26.8</v>
-      </c>
-      <c r="F109">
-        <v>31.6</v>
-      </c>
-      <c r="G109">
-        <v>58.4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>14.6</v>
-      </c>
-      <c r="B110">
-        <v>14</v>
-      </c>
-      <c r="C110">
-        <v>8.5</v>
-      </c>
-      <c r="D110">
-        <v>0.1</v>
-      </c>
-      <c r="E110">
-        <v>7.3</v>
-      </c>
-      <c r="F110">
-        <v>37.1</v>
-      </c>
-      <c r="G110">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>22</v>
-      </c>
-      <c r="B111">
-        <v>26.6</v>
-      </c>
-      <c r="C111">
-        <v>12.7</v>
-      </c>
-      <c r="D111">
-        <v>0.3</v>
-      </c>
-      <c r="E111">
-        <v>21.8</v>
-      </c>
-      <c r="F111">
-        <v>61.6</v>
-      </c>
-      <c r="G111">
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>12.8</v>
-      </c>
-      <c r="B112">
-        <v>29.3</v>
-      </c>
-      <c r="C112">
-        <v>19.7</v>
-      </c>
-      <c r="D112">
-        <v>0.4</v>
-      </c>
-      <c r="E112">
-        <v>37.1</v>
-      </c>
-      <c r="F112">
-        <v>62.2</v>
-      </c>
-      <c r="G112">
-        <v>99.3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="B113">
-        <v>14</v>
-      </c>
-      <c r="C113">
-        <v>8.9</v>
-      </c>
-      <c r="D113">
-        <v>0.2</v>
-      </c>
-      <c r="E113">
-        <v>23.3</v>
-      </c>
-      <c r="F113">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="G113">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>19.7</v>
-      </c>
-      <c r="B114">
-        <v>24.6</v>
-      </c>
-      <c r="C114">
-        <v>10.3</v>
-      </c>
-      <c r="D114">
-        <v>0.1</v>
-      </c>
-      <c r="E114">
-        <v>10.4</v>
-      </c>
-      <c r="F114">
-        <v>54.7</v>
-      </c>
-      <c r="G114">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>16.5</v>
-      </c>
-      <c r="B115">
-        <v>12.6</v>
-      </c>
-      <c r="C115">
-        <v>7.5</v>
-      </c>
-      <c r="D115">
-        <v>0.1</v>
-      </c>
-      <c r="E115">
-        <v>4.5</v>
-      </c>
-      <c r="F115">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="G115">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>16.3</v>
-      </c>
-      <c r="B116">
-        <v>14.6</v>
-      </c>
-      <c r="C116">
-        <v>8.9</v>
-      </c>
-      <c r="D116">
-        <v>0.1</v>
-      </c>
-      <c r="E116">
-        <v>3.5</v>
-      </c>
-      <c r="F116">
-        <v>40</v>
-      </c>
-      <c r="G116">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>15.9</v>
-      </c>
-      <c r="B117">
-        <v>43.3</v>
-      </c>
-      <c r="C117">
-        <v>47</v>
-      </c>
-      <c r="D117">
-        <v>0.2</v>
-      </c>
-      <c r="E117">
-        <v>3.5</v>
-      </c>
-      <c r="F117">
-        <v>106.3</v>
-      </c>
-      <c r="G117">
-        <v>109.8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B118">
-        <v>21.3</v>
-      </c>
-      <c r="C118">
-        <v>16</v>
-      </c>
-      <c r="D118">
-        <v>0.2</v>
-      </c>
-      <c r="E118">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F118">
-        <v>46.8</v>
-      </c>
-      <c r="G118">
-        <v>51.2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="B119">
-        <v>44.6</v>
-      </c>
-      <c r="C119">
-        <v>42.8</v>
-      </c>
-      <c r="D119">
-        <v>0.3</v>
-      </c>
-      <c r="E119">
-        <v>2.6</v>
-      </c>
-      <c r="F119">
-        <v>104.2</v>
-      </c>
-      <c r="G119">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>13</v>
-      </c>
-      <c r="B120">
-        <v>46.6</v>
-      </c>
-      <c r="C120">
-        <v>29.6</v>
-      </c>
-      <c r="D120">
-        <v>0.3</v>
-      </c>
-      <c r="E120">
-        <v>3.9</v>
-      </c>
-      <c r="F120">
-        <v>89.5</v>
-      </c>
-      <c r="G120">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>10.9</v>
-      </c>
-      <c r="B121">
-        <v>43.9</v>
-      </c>
-      <c r="C121">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="D121">
-        <v>0.3</v>
-      </c>
-      <c r="E121">
-        <v>2.7</v>
-      </c>
-      <c r="F121">
-        <v>90.8</v>
-      </c>
-      <c r="G121">
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>15.4</v>
-      </c>
-      <c r="B122">
-        <v>22.6</v>
-      </c>
-      <c r="C122">
-        <v>12.7</v>
-      </c>
-      <c r="D122">
-        <v>0.1</v>
-      </c>
-      <c r="E122">
-        <v>4.7</v>
-      </c>
-      <c r="F122">
-        <v>50.8</v>
-      </c>
-      <c r="G122">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>16.7</v>
-      </c>
-      <c r="B123">
-        <v>14.6</v>
-      </c>
-      <c r="C123">
-        <v>8.5</v>
-      </c>
-      <c r="D123">
-        <v>0.1</v>
-      </c>
-      <c r="E123">
-        <v>3.4</v>
-      </c>
-      <c r="F123">
-        <v>39.9</v>
-      </c>
-      <c r="G123">
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>15.6</v>
-      </c>
-      <c r="B124">
-        <v>14.6</v>
-      </c>
-      <c r="C124">
-        <v>8</v>
-      </c>
-      <c r="D124">
-        <v>0.2</v>
-      </c>
-      <c r="E124">
-        <v>1.2</v>
-      </c>
-      <c r="F124">
-        <v>38.4</v>
-      </c>
-      <c r="G124">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>18.7</v>
-      </c>
-      <c r="B125">
-        <v>47.3</v>
-      </c>
-      <c r="C125">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="D125">
-        <v>0.2</v>
-      </c>
-      <c r="E125">
-        <v>1.8</v>
-      </c>
-      <c r="F125">
-        <v>101.9</v>
-      </c>
-      <c r="G125">
-        <v>103.7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>13.3</v>
-      </c>
-      <c r="B126">
-        <v>40.6</v>
-      </c>
-      <c r="C126">
-        <v>31</v>
-      </c>
-      <c r="D126">
-        <v>0.2</v>
-      </c>
-      <c r="E126">
-        <v>0.8</v>
-      </c>
-      <c r="F126">
-        <v>85.2</v>
-      </c>
-      <c r="G126">
-        <v>85.9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G127">
-        <f>MAX(G2:G126)</f>
-        <v>218.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -10840,7 +11047,7 @@
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
